--- a/data/buzz_sheets/temp.xlsx
+++ b/data/buzz_sheets/temp.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
   <si>
     <t>Date:</t>
   </si>
@@ -72,6 +72,195 @@
   </si>
   <si>
     <t>End of Shift</t>
+  </si>
+  <si>
+    <t>Saturday, June 29, 2019</t>
+  </si>
+  <si>
+    <t>Roast beef sandwich</t>
+  </si>
+  <si>
+    <t>Minestrone</t>
+  </si>
+  <si>
+    <t>Carrot, Broccoli, Cauliflower</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>5:30-2:30</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>9:00-CL</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>6:00-2:00</t>
+  </si>
+  <si>
+    <t>Brendan</t>
+  </si>
+  <si>
+    <t>10:00-CL</t>
+  </si>
+  <si>
+    <t>Dishwasher</t>
+  </si>
+  <si>
+    <t>Sour Cream Fridge</t>
+  </si>
+  <si>
+    <t>34-40</t>
+  </si>
+  <si>
+    <t>Salad Fridge</t>
+  </si>
+  <si>
+    <t>Milk Fridge</t>
+  </si>
+  <si>
+    <t>Soup</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Ice Cream Freezer</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>Line Freezer</t>
+  </si>
+  <si>
+    <t>Hollandaise</t>
+  </si>
+  <si>
+    <t>Gravy/Au Jus</t>
+  </si>
+  <si>
+    <t>Pancake Grill</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>Fryer</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>Walk-in Cooler</t>
+  </si>
+  <si>
+    <t>Walk-in Freezer</t>
+  </si>
+  <si>
+    <t>Sandwich Fridge</t>
+  </si>
+  <si>
+    <t>Dishwasher - Wash</t>
+  </si>
+  <si>
+    <t>100-120</t>
+  </si>
+  <si>
+    <t>Dishwasher - Rinse</t>
+  </si>
+  <si>
+    <t>Fill out buzz sheet</t>
+  </si>
+  <si>
+    <t>Turn on equipment</t>
+  </si>
+  <si>
+    <t>Heat gravies/au jus</t>
+  </si>
+  <si>
+    <t>Heat soup</t>
+  </si>
+  <si>
+    <t>Cook bacon/sausage</t>
+  </si>
+  <si>
+    <t>Cook shredded</t>
+  </si>
+  <si>
+    <t>Freezer pull</t>
+  </si>
+  <si>
+    <t>Temp list</t>
+  </si>
+  <si>
+    <t>Bake potatoes</t>
+  </si>
+  <si>
+    <t>Flip sandwich cooler</t>
+  </si>
+  <si>
+    <t>Prep items needed</t>
+  </si>
+  <si>
+    <t>Stock all product</t>
+  </si>
+  <si>
+    <t>Wipe down stainless</t>
+  </si>
+  <si>
+    <t>Replace poaching pot</t>
+  </si>
+  <si>
+    <t>Clean 2nd grill (Sat/Sun)</t>
+  </si>
+  <si>
+    <t>Take out full garbages</t>
+  </si>
+  <si>
+    <t>Empty grease traps if full</t>
+  </si>
+  <si>
+    <t>All food put away</t>
+  </si>
+  <si>
+    <t>Replace waffle tray</t>
+  </si>
+  <si>
+    <t>Clean grill</t>
+  </si>
+  <si>
+    <t>Wrap/lid all open food</t>
+  </si>
+  <si>
+    <t>Turn off grill/hood vents</t>
+  </si>
+  <si>
+    <t>Take out garbages</t>
+  </si>
+  <si>
+    <t>Lock back door</t>
+  </si>
+  <si>
+    <t>Check dish area</t>
+  </si>
+  <si>
+    <t>Wipe down prep area</t>
+  </si>
+  <si>
+    <t>Turn off oven/fryer</t>
+  </si>
+  <si>
+    <t>Turn off soup well</t>
   </si>
 </sst>
 </file>
@@ -79,7 +268,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -88,10 +277,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+      <color indexed="8"/>
     </font>
   </fonts>
   <fills count="5">
@@ -116,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -125,40 +319,253 @@
       <diagonal/>
     </border>
     <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
       <bottom style="medium"/>
     </border>
     <border>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
+      <left style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="medium">
@@ -166,169 +573,163 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin"/>
     </border>
     <border>
       <left style="medium"/>
-      <right/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
+      <right style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <left style="medium"/>
-      <right/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right/>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <left style="medium"/>
@@ -336,6 +737,19 @@
     </border>
     <border>
       <left style="medium"/>
+      <right style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
@@ -344,6 +758,8 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
@@ -352,9 +768,10 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
@@ -363,10 +780,10 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="medium">
@@ -374,54 +791,48 @@
       </bottom>
     </border>
     <border>
-      <left/>
+      <left style="thin"/>
       <right style="medium"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
       <right style="medium"/>
       <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
       <right style="medium"/>
       <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="medium"/>
       <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="medium"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="medium">
@@ -430,97 +841,259 @@
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
       <right style="medium"/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
       <right style="medium"/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top>
+      <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
       <right style="medium"/>
       <bottom style="medium"/>
     </border>
     <border>
+      <left style="thin"/>
       <right style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <top style="thin"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
       <right style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
+      <top style="thin"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="medium">
@@ -531,40 +1104,176 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="71" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="76" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="81" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="81" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="86" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="71" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
@@ -582,258 +1291,750 @@
     <col min="1" max="1" width="10.5703125" customWidth="true"/>
     <col min="2" max="2" width="5.5703125" customWidth="true"/>
     <col min="3" max="3" width="6.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.7109375" customWidth="true"/>
-    <col min="5" max="5" width="5.7109375" customWidth="true"/>
+    <col min="4" max="4" width="6.140625" customWidth="true"/>
+    <col min="5" max="5" width="6.140625" customWidth="true"/>
     <col min="6" max="6" width="8.28515625" customWidth="true"/>
-    <col min="7" max="7" width="8.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.5703125" customWidth="true"/>
     <col min="8" max="8" width="6.140625" customWidth="true"/>
     <col min="9" max="9" width="8.28515625" customWidth="true"/>
-    <col min="10" max="10" width="8.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.5703125" customWidth="true"/>
     <col min="11" max="11" width="6.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="K3" s="7"/>
+      <c r="A3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4">
-      <c r="A4" s="4"/>
-      <c r="K4" s="7"/>
+      <c r="A4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5">
-      <c r="A5" s="4"/>
-      <c r="K5" s="7"/>
+      <c r="A5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6">
-      <c r="A6" s="4"/>
-      <c r="K6" s="7"/>
+      <c r="A6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7">
-      <c r="A7" s="4"/>
-      <c r="K7" s="7"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="K8" s="7"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9">
-      <c r="A9" s="4"/>
-      <c r="K9" s="7"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10">
-      <c r="A10" s="4"/>
-      <c r="F10" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="B12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13">
-      <c r="A13" s="4"/>
-      <c r="K13" s="7"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="B14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="B15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17">
-      <c r="A17" s="4"/>
-      <c r="F17" t="s">
+      <c r="A17" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I17" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18">
-      <c r="A18" s="4"/>
-      <c r="F18" t="s">
+      <c r="A18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I18" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19">
-      <c r="A19" s="4"/>
-      <c r="K19" s="7"/>
+      <c r="A19" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
-      <c r="K20" s="7"/>
+      <c r="A20" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21">
-      <c r="A21" s="4"/>
-      <c r="K21" s="7"/>
+      <c r="A21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22">
-      <c r="A22" s="4"/>
-      <c r="K22" s="7"/>
+      <c r="A22" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23">
-      <c r="A23" s="4"/>
-      <c r="K23" s="7"/>
+      <c r="A23" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24">
-      <c r="A24" s="4"/>
-      <c r="K24" s="7"/>
+      <c r="A24" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25">
-      <c r="A25" s="4"/>
-      <c r="K25" s="7"/>
+      <c r="A25" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="32"/>
     </row>
     <row r="26">
-      <c r="A26" s="4"/>
-      <c r="K26" s="7"/>
+      <c r="A26" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="32"/>
     </row>
     <row r="27">
-      <c r="A27" s="4"/>
-      <c r="K27" s="7"/>
+      <c r="A27" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28">
-      <c r="A28" s="4"/>
-      <c r="F28" t="s">
+      <c r="A28" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I28" t="s">
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="34"/>
     </row>
     <row r="29">
-      <c r="A29" s="4"/>
-      <c r="K29" s="7"/>
+      <c r="A29" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30">
-      <c r="A30" s="4"/>
-      <c r="K30" s="7"/>
+      <c r="A30" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31">
-      <c r="A31" s="4"/>
-      <c r="K31" s="7"/>
+      <c r="A31" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="32"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="7"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="32"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="7"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="F34" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35">
-      <c r="A35" s="4"/>
-      <c r="K35" s="7"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="32"/>
     </row>
     <row r="36">
-      <c r="A36" s="4"/>
-      <c r="K36" s="7"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37">
-      <c r="A37" s="4"/>
-      <c r="K37" s="7"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="32"/>
     </row>
     <row r="38">
-      <c r="A38" s="4"/>
-      <c r="K38" s="7"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="32"/>
     </row>
     <row r="39">
-      <c r="A39" s="4"/>
-      <c r="K39" s="7"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="32"/>
     </row>
     <row r="40">
-      <c r="A40" s="4"/>
-      <c r="K40" s="7"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="32"/>
     </row>
     <row r="41">
-      <c r="A41" s="5"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="8"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41" s="20"/>
+      <c r="K41" s="34"/>
     </row>
   </sheetData>
   <mergeCells>
